--- a/wyd_rate.xlsx
+++ b/wyd_rate.xlsx
@@ -105,7 +105,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +131,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -277,18 +284,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -629,16 +630,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,115 +645,118 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -773,13 +774,13 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1261,7 +1262,7 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4272727272727" defaultRowHeight="15" customHeight="1"/>
@@ -1337,7 +1338,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1361,7 +1362,7 @@
       <c r="AB2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:28">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="6">
@@ -1376,7 +1377,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="F3" s="7">
         <v>9</v>
@@ -1385,7 +1386,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="7">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1409,7 +1410,7 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:28">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6">
@@ -1457,7 +1458,7 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:28">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6">
@@ -1505,7 +1506,7 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:28">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
@@ -1553,7 +1554,7 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:28">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
@@ -1577,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="7">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1601,7 +1602,7 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:28">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6">
@@ -1622,10 +1623,10 @@
         <v>20</v>
       </c>
       <c r="G8" s="7">
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1649,7 +1650,7 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:28">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
@@ -1667,10 +1668,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="7">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>28</v>
@@ -1697,7 +1698,7 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:28">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6">
@@ -1712,13 +1713,13 @@
         <v>24</v>
       </c>
       <c r="E10" s="7">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -1745,7 +1746,7 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:28">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="6">
@@ -1760,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="E11" s="7">
-        <v>25.5</v>
+        <v>26</v>
       </c>
       <c r="F11" s="7">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -1793,7 +1794,7 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:28">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6">
@@ -1808,16 +1809,16 @@
         <v>27</v>
       </c>
       <c r="E12" s="7">
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7">
         <v>29</v>
       </c>
       <c r="G12" s="7">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="H12" s="7">
-        <v>33.5</v>
+        <v>34</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1841,7 +1842,7 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:28">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="6">
@@ -1862,10 +1863,10 @@
         <v>30</v>
       </c>
       <c r="G13" s="7">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="H13" s="7">
-        <v>35.5</v>
+        <v>36</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1889,7 +1890,7 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:28">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="6">
@@ -1904,7 +1905,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="7">
-        <v>31.25</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7">
         <v>33</v>
@@ -1913,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="7">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1937,7 +1938,7 @@
       <c r="AB14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:28">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="6">
@@ -1948,19 +1949,19 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>60</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <v>140</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>220</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>370</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>470</v>
       </c>
       <c r="I15" s="4"/>
